--- a/dataset/metadata/InfoAccession.xlsx
+++ b/dataset/metadata/InfoAccession.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HRG\Rice-Panicle-Architecture-Analysis-DL\dataset\metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
     <definedName name="none">'[1]2004'!#REF!</definedName>
     <definedName name="none2">'[1]2004'!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="202">
   <si>
     <t>Id</t>
   </si>
@@ -642,6 +642,15 @@
   </si>
   <si>
     <t>[65]*TOG5588-1</t>
+  </si>
+  <si>
+    <t>O. barthii</t>
+  </si>
+  <si>
+    <t>O. glaberrima</t>
+  </si>
+  <si>
+    <t>O. sativa</t>
   </si>
 </sst>
 </file>
@@ -1026,10 +1035,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Feuil1"/>
-  <dimension ref="A1:I66"/>
+  <dimension ref="A1:J66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1039,7 +1048,7 @@
     <col min="9" max="9" width="29.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1059,7 +1068,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1081,8 +1090,11 @@
       <c r="I2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1104,8 +1116,11 @@
       <c r="I3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1125,7 +1140,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -1147,8 +1162,11 @@
       <c r="I5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -1170,8 +1188,11 @@
       <c r="I6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J6" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1194,7 +1215,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -1217,7 +1238,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -1234,7 +1255,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -1257,7 +1278,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -1280,7 +1301,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -1303,7 +1324,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -1326,7 +1347,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -1349,7 +1370,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -1372,7 +1393,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>15</v>
       </c>

--- a/dataset/metadata/InfoAccession.xlsx
+++ b/dataset/metadata/InfoAccession.xlsx
@@ -1038,7 +1038,7 @@
   <dimension ref="A1:J66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1188,9 +1188,6 @@
       <c r="I6" t="s">
         <v>24</v>
       </c>
-      <c r="J6" t="s">
-        <v>201</v>
-      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
@@ -1213,6 +1210,9 @@
       </c>
       <c r="I7" t="s">
         <v>28</v>
+      </c>
+      <c r="J7" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
